--- a/biology/Zoologie/Couesius/Couesius.xlsx
+++ b/biology/Zoologie/Couesius/Couesius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couesius plumbeus · Méné de lac
 Le Mulet de lac (Couesius plumbeus) est une espèce de poissons d'eau douce de la famille des Cyprinidae présente au Canada et dans certains états du nord des États-Unis d'Amérique. C'est la seule espèce du genre Couesius (monotypique).
